--- a/forms/app/pcmie_test_diag.xlsx
+++ b/forms/app/pcmie_test_diag.xlsx
@@ -5325,7 +5325,7 @@
     <t xml:space="preserve">dg_artesunate_iv_ml</t>
   </si>
   <si>
-    <t xml:space="preserve">cht:extension-lib('drugs.js','artemether_iv_ml',${p_sel_gender}, ${p_age},${p_weight})</t>
+    <t xml:space="preserve">cht:extension-lib('drugs.js','artesunate_iv_ml',${p_sel_gender}, ${p_age},${p_weight})</t>
   </si>
   <si>
     <t xml:space="preserve">dg_artesunate_iv_mg</t>
@@ -15775,11 +15775,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -16219,7 +16218,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16243,7 +16242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16263,11 +16262,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16379,7 +16378,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16415,7 +16414,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -17197,11 +17196,11 @@
   <dimension ref="A1:AMJ1869"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N850" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N856" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A850" activeCellId="0" sqref="A850"/>
-      <selection pane="bottomRight" activeCell="O870" activeCellId="0" sqref="O870"/>
+      <selection pane="bottomLeft" activeCell="A856" activeCellId="0" sqref="A856"/>
+      <selection pane="bottomRight" activeCell="O875" activeCellId="0" sqref="O875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46244,7 +46243,7 @@
       </c>
       <c r="C2" s="24" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2307111103</v>
+        <v>2307111401</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
@@ -46277,7 +46276,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="36"/>
@@ -50165,7 +50164,7 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="36"/>
   </cols>
@@ -50260,7 +50259,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="36"/>
   </cols>
@@ -50385,7 +50384,7 @@
       <selection pane="topLeft" activeCell="F141" activeCellId="0" sqref="F141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.38"/>
